--- a/Input/Adamjee_Mednet/userType.xlsx
+++ b/Input/Adamjee_Mednet/userType.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t xml:space="preserve">benefits</t>
   </si>
@@ -34,6 +34,12 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">Annual Limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
     <t xml:space="preserve">Claims Handling</t>
   </si>
   <si>
@@ -41,9 +47,6 @@
   </si>
   <si>
     <t xml:space="preserve">Chronic Condition Cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All</t>
   </si>
   <si>
     <t xml:space="preserve">Pre-existing Condition Cover</t>
@@ -243,31 +246,30 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -286,7 +288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -294,7 +296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -307,7 +309,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -315,31 +317,31 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -347,39 +349,39 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -387,7 +389,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -395,7 +397,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -403,26 +405,26 @@
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -435,26 +437,26 @@
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -467,15 +469,15 @@
         <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -483,23 +485,23 @@
         <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -507,18 +509,18 @@
         <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -531,7 +533,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -550,20 +552,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -571,15 +573,23 @@
         <v>41</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
